--- a/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
+++ b/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">open</t>
   </si>
   <si>
-    <t xml:space="preserve">inner.html</t>
+    <t xml:space="preserve">store.html</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
@@ -73,13 +73,13 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">inner_btn</t>
+    <t xml:space="preserve">message</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">errMsg</t>
+    <t xml:space="preserve">msg</t>
   </si>
   <si>
     <t xml:space="preserve">タグ</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">属性</t>
   </si>
   <si>
-    <t xml:space="preserve">attribute:onclick</t>
+    <t xml:space="preserve">attribute:class</t>
   </si>
   <si>
     <t xml:space="preserve">attrVal</t>
@@ -115,6 +115,9 @@
     <t xml:space="preserve">location</t>
   </si>
   <si>
+    <t xml:space="preserve">locVal</t>
+  </si>
+  <si>
     <t xml:space="preserve">四角</t>
   </si>
   <si>
@@ -125,6 +128,27 @@
   </si>
   <si>
     <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テキスト出力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">後</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{params['msg']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロケーション出力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output2</t>
   </si>
 </sst>
 </file>
@@ -147,19 +171,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -238,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,6 +318,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -318,21 +347,21 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="14.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="39.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="10" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="256" style="0" width="10.89"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.9581395348837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.106976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="17.9581395348837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="50.6604651162791"/>
+    <col collapsed="false" hidden="false" max="255" min="10" style="1" width="14.0883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="256" style="0" width="13.8883720930233"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -455,7 +484,7 @@
       <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3"/>
@@ -512,8 +541,8 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="10" t="s">
-        <v>29</v>
+      <c r="I7" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -522,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -534,12 +563,12 @@
         <v>16</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="10" t="s">
-        <v>31</v>
+      <c r="I8" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -548,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -560,13 +589,61 @@
         <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="I9" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
+++ b/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -133,10 +133,7 @@
     <t xml:space="preserve">テキスト出力</t>
   </si>
   <si>
-    <t xml:space="preserve">input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output1</t>
+    <t xml:space="preserve">verify</t>
   </si>
   <si>
     <t xml:space="preserve">後</t>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">ロケーション出力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output2</t>
   </si>
 </sst>
 </file>
@@ -160,7 +154,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -188,6 +182,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="5.2"/>
+      <color rgb="FF000000"/>
+      <name val=".AppleSystemUIFont"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -259,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,6 +326,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -347,8 +351,8 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -612,15 +616,15 @@
         <v>15</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -629,17 +633,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>

--- a/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
+++ b/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">size</t>
   </si>
   <si>
-    <t xml:space="preserve">テキスト出力</t>
+    <t xml:space="preserve">確認text</t>
   </si>
   <si>
     <t xml:space="preserve">verify</t>
@@ -142,7 +142,31 @@
     <t xml:space="preserve">#{params['msg']}</t>
   </si>
   <si>
-    <t xml:space="preserve">ロケーション出力</t>
+    <t xml:space="preserve">確認tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{params['tagName']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{params['attrVal']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{params['cssVal']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認location</t>
   </si>
 </sst>
 </file>
@@ -184,9 +208,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="5.2"/>
-      <color rgb="FF000000"/>
-      <name val=".AppleSystemUIFont"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -601,7 +624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-1</f>
         <v>9</v>
@@ -616,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="12" t="s">
@@ -627,7 +650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <f aca="false">ROW()-1</f>
         <v>10</v>
@@ -635,18 +658,107 @@
       <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="16"/>
+    </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
+++ b/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t xml:space="preserve">確認location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{params['locVal'].X}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認rect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{params['rect'].Y}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{params['size'].height}</t>
   </si>
 </sst>
 </file>
@@ -178,7 +193,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -206,11 +221,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -282,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,10 +359,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -372,26 +378,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I65536"/>
+  <dimension ref="A1:J65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.9581395348837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.106976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="17.9581395348837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="50.6604651162791"/>
-    <col collapsed="false" hidden="false" max="255" min="10" style="1" width="14.0883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="256" style="0" width="13.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.88372093023256"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.0093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.4837209302326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="40.6418604651163"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="25.046511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="70.7953488372093"/>
+    <col collapsed="false" hidden="false" max="255" min="10" style="1" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="256" style="0" width="19.2790697674419"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,8 +629,9 @@
       <c r="I9" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-1</f>
         <v>9</v>
@@ -649,8 +656,9 @@
       <c r="I10" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <f aca="false">ROW()-1</f>
         <v>10</v>
@@ -675,8 +683,9 @@
       <c r="I11" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <f aca="false">ROW()-1</f>
         <v>11</v>
@@ -701,8 +710,9 @@
       <c r="I12" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <f aca="false">ROW()-1</f>
         <v>12</v>
@@ -727,6 +737,7 @@
       <c r="I13" s="16" t="s">
         <v>46</v>
       </c>
+      <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -742,22 +753,72 @@
       <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="0"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
+++ b/sit-wt-runtime/src/test/resources/StoreElementValueTestScript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -130,6 +130,12 @@
     <t xml:space="preserve">size</t>
   </si>
   <si>
+    <t xml:space="preserve">テキストメッセージ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg2</t>
+  </si>
+  <si>
     <t xml:space="preserve">確認text</t>
   </si>
   <si>
@@ -182,6 +188,12 @@
   </si>
   <si>
     <t xml:space="preserve">#{params['size'].height}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認text2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{params['msg2']}</t>
   </si>
 </sst>
 </file>
@@ -386,15 +398,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.88372093023256"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.0093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.4837209302326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="40.6418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="25.046511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="70.7953488372093"/>
-    <col collapsed="false" hidden="false" max="255" min="10" style="1" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="256" style="0" width="19.2790697674419"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.64186046511628"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.1720930232558"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.0372093023256"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.1209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="44.2279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="27.1209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="77.0279069767442"/>
+    <col collapsed="false" hidden="false" max="255" min="10" style="1" width="21.2651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="256" style="0" width="20.8883720930233"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -631,7 +643,7 @@
       </c>
       <c r="J9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-1</f>
         <v>9</v>
@@ -640,44 +652,42 @@
         <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="J10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="16" t="s">
@@ -694,21 +704,21 @@
         <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="0"/>
     </row>
@@ -718,47 +728,47 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <f aca="false">ROW()-1</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="16" t="s">
@@ -775,17 +785,17 @@
         <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="16" t="s">
@@ -793,7 +803,7 @@
       </c>
       <c r="J15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <f aca="false">ROW()-1</f>
         <v>15</v>
@@ -802,17 +812,17 @@
         <v>51</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="16" t="s">
@@ -820,8 +830,60 @@
       </c>
       <c r="J16" s="0"/>
     </row>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="0"/>
+    </row>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
